--- a/2a/Data/3.xlsx
+++ b/2a/Data/3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a74b15c80f35c5/Documents/GitHub/Electrocics/2a/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magdalenaskraba/Documents/GitHub/Electrocics/2a/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{07AF3606-C8A2-45C7-B78D-4EAED1F8B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AF648B8-D6D6-4A82-9A96-37EDDB9C263A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38399E72-1B8D-1F43-B557-3D234B397D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20177" xr2:uid="{25B9DA8B-D906-4D31-BD5A-B5FF0F9843EE}"/>
+    <workbookView xWindow="7180" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{25B9DA8B-D906-4D31-BD5A-B5FF0F9843EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,7 +73,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -93,10 +88,2384 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>U</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>wy(f) z mostkiem TT</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87FF-3F4B-A965-64D108945AC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419304719"/>
+        <c:axId val="419306367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="419304719"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419306367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419306367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Uwy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419304719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>5.4282868525896424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7100297914597817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8531746031746028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9435364041604757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0455896927651143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1446977205153619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2407132243684993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2902426944031697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3366336633663369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9272637308263239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1521739130434803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5755182625863764</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.118226600985221</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.504189255791031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.551724137931036</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.177339901477829</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.477832512315267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.078817733990142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.7070408665682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.905511811023615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.874015748031489</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.597638957206108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.240904621435595</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2829076620825148</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5356265356265357</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0589390962671903</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1728031418753062</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.583701521845851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1403336604514234</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7504911591355601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.504911591355599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3073146784486989</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1109474717722136</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9646365422396856</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8172888015717092</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6691212567501226</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.57093765341188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F886-C34E-ABDE-3B79F54EC2DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419889519"/>
+        <c:axId val="419984223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="419889519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419984223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419984223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419889519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305628</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>148684</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FE5D0F-DA6E-D745-8063-73813D27B229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>578716</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>402648</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287BBCF2-FE67-5746-AD53-0CE53BB4F068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +2503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +2609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,320 +2759,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29C648-632C-4125-A285-8527B6D42C05}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>20</v>
       </c>
       <c r="B1" s="1">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="E1">
+        <v>20</v>
+      </c>
+      <c r="F1">
+        <f>B1/(C1/1000)</f>
+        <v>5.4282868525896424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>20.14</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F38" si="0">B2/(C2/1000)</f>
+        <v>5.7100297914597817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>20.16</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>5.8531746031746028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E4">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5.9435364041604757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>20.18</v>
+      </c>
+      <c r="E5">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>6.0455896927651143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>70</v>
       </c>
       <c r="B6" s="1">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>20.18</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>6.1446977205153619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>0.126</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E7">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6.2407132243684993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>92</v>
       </c>
       <c r="B8" s="1">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E8">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>6.2902426944031697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>99</v>
       </c>
       <c r="B9" s="1">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>20.2</v>
+      </c>
+      <c r="E9">
+        <v>99</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>6.3366336633663369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>148</v>
       </c>
       <c r="B10" s="1">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>20.21</v>
+      </c>
+      <c r="E10">
+        <v>148</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6.9272637308263239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>205</v>
       </c>
       <c r="B11" s="1">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="E11">
+        <v>205</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>8.1521739130434803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>252</v>
       </c>
       <c r="B12" s="1">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="E12">
+        <v>252</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9.5755182625863764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>301</v>
       </c>
       <c r="B13" s="1">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>20.3</v>
+      </c>
+      <c r="E13">
+        <v>301</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>12.118226600985221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>319</v>
       </c>
       <c r="B14" s="1">
         <v>0.27400000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>20.29</v>
+      </c>
+      <c r="E14">
+        <v>319</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>13.504189255791031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>349</v>
       </c>
       <c r="B15" s="1">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>20.3</v>
+      </c>
+      <c r="E15">
+        <v>349</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>16.551724137931036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>361</v>
       </c>
       <c r="B16" s="1">
         <v>0.36899999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>20.3</v>
+      </c>
+      <c r="E16">
+        <v>361</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>18.177339901477829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>380</v>
       </c>
       <c r="B17" s="1">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>20.3</v>
+      </c>
+      <c r="E17">
+        <v>380</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>21.477832512315267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>404</v>
       </c>
       <c r="B18" s="1">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>20.3</v>
+      </c>
+      <c r="E18">
+        <v>404</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>28.078817733990142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>420</v>
       </c>
       <c r="B19" s="1">
         <v>0.67700000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="E19">
+        <v>420</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>440</v>
       </c>
       <c r="B20" s="1">
         <v>0.90800000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="E20">
+        <v>440</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>44.7070408665682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>460</v>
       </c>
       <c r="B21" s="1">
         <v>1.1359999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20.32</v>
+      </c>
+      <c r="E21">
+        <v>460</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>55.905511811023615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>475</v>
       </c>
       <c r="B22" s="1">
         <v>1.1759999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>20.32</v>
+      </c>
+      <c r="E22">
+        <v>475</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>57.874015748031489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>499</v>
       </c>
       <c r="B23" s="1">
         <v>0.92700000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E23">
+        <v>499</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>45.597638957206108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>605</v>
       </c>
       <c r="B24" s="1">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>20.34</v>
+      </c>
+      <c r="E24">
+        <v>605</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>15.240904621435595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>698</v>
       </c>
       <c r="B25" s="1">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>20.36</v>
+      </c>
+      <c r="E25">
+        <v>698</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>9.2829076620825148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>803</v>
       </c>
       <c r="B26" s="1">
         <v>0.13300000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="E26">
+        <v>803</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>6.5356265356265357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>907</v>
       </c>
       <c r="B27" s="1">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>20.36</v>
+      </c>
+      <c r="E27">
+        <v>907</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>5.0589390962671903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1007</v>
       </c>
       <c r="B28" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>20.37</v>
+      </c>
+      <c r="E28">
+        <v>1007</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>4.1728031418753062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1104</v>
       </c>
       <c r="B29" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>20.37</v>
+      </c>
+      <c r="E29">
+        <v>1104</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3.583701521845851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1202</v>
       </c>
       <c r="B30" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>20.38</v>
+      </c>
+      <c r="E30">
+        <v>1202</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3.1403336604514234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1307</v>
       </c>
       <c r="B31" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>20.36</v>
+      </c>
+      <c r="E31">
+        <v>1307</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2.7504911591355601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1400</v>
       </c>
       <c r="B32" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>20.36</v>
+      </c>
+      <c r="E32">
+        <v>1400</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>2.504911591355599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1501</v>
       </c>
       <c r="B33" s="1">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>20.37</v>
+      </c>
+      <c r="E33">
+        <v>1501</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>2.3073146784486989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1606</v>
       </c>
       <c r="B34" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>20.37</v>
+      </c>
+      <c r="E34">
+        <v>1606</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2.1109474717722136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1701</v>
       </c>
       <c r="B35" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>20.36</v>
+      </c>
+      <c r="E35">
+        <v>1701</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.9646365422396856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1801</v>
       </c>
       <c r="B36" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>20.36</v>
+      </c>
+      <c r="E36">
+        <v>1801</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.8172888015717092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1903</v>
       </c>
       <c r="B37" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>20.37</v>
+      </c>
+      <c r="E37">
+        <v>1903</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.6691212567501226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2010</v>
       </c>
       <c r="B38" s="1">
         <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C38">
+        <v>20.37</v>
+      </c>
+      <c r="E38">
+        <v>2010</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.57093765341188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>